--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1303,10 +1303,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.708333333333333</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1298,7 +1298,8 @@
     <col min="6" max="6" width="19.2727272727273" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.6363636363636" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.0636363636364" style="2" customWidth="1"/>
-    <col min="9" max="9" width="36.4272727272727" customWidth="1"/>
+    <col min="9" max="9" width="9.72727272727273" customWidth="1"/>
+    <col min="10" max="10" width="28.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
@@ -1327,10 +1328,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="1">
-        <v>0.375</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.833333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1380,7 +1380,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B4" s="1">
-        <v>0.708333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -101,6 +101,9 @@
     <t>Stephane Kelada</t>
   </si>
   <si>
+    <t>start 2nd of june</t>
+  </si>
+  <si>
     <t>Pickup point</t>
   </si>
   <si>
@@ -113,7 +116,18 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>Shrouk-كشك اللحمة</t>
+    <r>
+      <t>Shrouk-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>كشك اللحمة</t>
+    </r>
   </si>
   <si>
     <t>Wafaa Abdo</t>
@@ -149,7 +163,18 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <t>Nafora square ميدان النافورة</t>
+    <r>
+      <t>Nafora square </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ميدان النافورة</t>
+    </r>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -167,7 +192,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +226,12 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -619,9 +650,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -640,24 +669,18 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -779,133 +802,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -929,31 +952,31 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1284,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1479,161 +1502,165 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1"/>
+    <row r="12" ht="15" customHeight="1" spans="1:1">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="12">
         <v>10329457</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13">
         <v>0.416666666666667</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="12">
         <v>10275931</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>0.791666666666667</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="11">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12">
         <v>10269213</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="13">
         <v>0.791666666666667</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="A17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="12">
         <v>10297499</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="13">
         <v>0.791666666666667</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11">
+    <row r="18" ht="17.75" spans="1:5">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12">
         <v>10282845</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="C18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="13">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="11">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12">
         <v>10309482</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="C19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="13">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="11">
+      <c r="A20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12">
         <v>10278058</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="C20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="13">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="12">
         <v>10257377</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="C21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="13">
         <v>0.791666666666667</v>
       </c>
     </row>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -117,6 +117,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Shrouk-</t>
     </r>
     <r>
@@ -164,6 +170,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Nafora square </t>
     </r>
     <r>
@@ -1307,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1327,10 +1339,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="B1" s="1">
-        <v>0.333333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1351,10 +1363,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.333333333333333</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1400,10 +1412,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.833333333333333</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>
@@ -1427,7 +1439,7 @@
         <v>0.375</v>
       </c>
       <c r="B5" s="1">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B4" s="1">
-        <v>0.333333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -101,7 +101,7 @@
     <t>Stephane Kelada</t>
   </si>
   <si>
-    <t>start 2nd of june</t>
+    <t>from 9/6 to 13/6</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -116,24 +116,7 @@
     <t>Departure</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Shrouk-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>كشك اللحمة</t>
-    </r>
+    <t>Shrouk-كشك اللحمة</t>
   </si>
   <si>
     <t>Wafaa Abdo</t>
@@ -169,24 +152,7 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Nafora square </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ميدان النافورة</t>
-    </r>
+    <t>Nafora square ميدان النافورة</t>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -204,7 +170,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,12 +204,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.25"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -662,7 +622,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -681,18 +643,24 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -814,137 +782,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,27 +936,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1320,7 +1291,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1339,10 +1310,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
-        <v>0.291666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="B1" s="1">
-        <v>0.166666666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1363,10 +1334,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="B2" s="1">
-        <v>0.291666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1384,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="15"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="1">
@@ -1412,10 +1383,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="1">
-        <v>0.333333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="B4" s="1">
-        <v>0.875</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>
@@ -1460,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1496,7 +1467,7 @@
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1510,7 +1481,7 @@
       <c r="H11" s="6">
         <v>0.375</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="19">
         <v>0.833333333333333</v>
       </c>
     </row>
@@ -1569,7 +1540,6 @@
       <c r="E15" s="13">
         <v>0.791666666666667</v>
       </c>
-      <c r="G15"/>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
@@ -1588,7 +1558,6 @@
       <c r="E16" s="13">
         <v>0.791666666666667</v>
       </c>
-      <c r="G16"/>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
@@ -1607,10 +1576,9 @@
       <c r="E17" s="13">
         <v>0.791666666666667</v>
       </c>
-      <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" ht="17.75" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="14"/>
       <c r="B18" s="12">
         <v>10282845</v>
@@ -1643,7 +1611,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="12">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
-        <v>0.0416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="1">
-        <v>0.708333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="1">
-        <v>0.708333333333333</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>الخميس اجازة</t>
-  </si>
-  <si>
-    <t>السبت و الحد حضور 10 و انصراف 5</t>
   </si>
   <si>
     <t>ستيفاني بكره وبعده تجمع حضور بس شيفت ٩ الصبح يوم 5 و 6</t>
@@ -359,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,12 +384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +779,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,16 +803,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -830,89 +821,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,9 +951,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1310,10 +1298,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
-        <v>0.458333333333333</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0.791666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1405,7 +1393,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:10">
+    <row r="5" ht="16" customHeight="1" spans="1:9">
       <c r="A5" s="1">
         <v>0.375</v>
       </c>
@@ -1431,9 +1419,6 @@
         <v>16</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="17" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8"/>
@@ -1447,7 +1432,7 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1459,16 +1444,16 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" ht="16.25" spans="6:9">
@@ -1476,46 +1461,46 @@
         <v>10214464</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="6">
         <v>0.375</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="12">
         <v>10329457</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="13">
         <v>0.416666666666667</v>
@@ -1526,13 +1511,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="12">
         <v>10275931</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="13">
         <v>0.458333333333333</v>
@@ -1544,13 +1529,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="12">
         <v>10269213</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="13">
         <v>0.458333333333333</v>
@@ -1562,13 +1547,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="12">
         <v>10297499</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="13">
         <v>0.458333333333333</v>
@@ -1584,7 +1569,7 @@
         <v>10282845</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="13">
         <v>0.458333333333333</v>
@@ -1595,13 +1580,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="12">
         <v>10309482</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="13">
         <v>0.458333333333333</v>
@@ -1612,13 +1597,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="12">
         <v>10278058</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="13">
         <v>0.458333333333333</v>
@@ -1629,13 +1614,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="12">
         <v>10257377</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="13">
         <v>0.458333333333333</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1298,10 +1298,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B1" s="1">
-        <v>0.333333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -98,7 +98,7 @@
     <t>Stephane Kelada</t>
   </si>
   <si>
-    <t>from 9/6 to 13/6</t>
+    <t>from the 16th of June till the 20th of June</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -113,7 +113,24 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>Shrouk-كشك اللحمة</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Shrouk-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>كشك اللحمة</t>
+    </r>
   </si>
   <si>
     <t>Wafaa Abdo</t>
@@ -149,7 +166,24 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <t>Nafora square ميدان النافورة</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nafora square </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ميدان النافورة</t>
+    </r>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -167,7 +201,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +235,12 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -613,9 +653,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -634,24 +672,18 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -773,137 +805,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,34 +955,26 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1279,7 +1303,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1301,7 +1325,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B1" s="1">
-        <v>0.833333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1322,10 +1346,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.666666666666667</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1343,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="1">
@@ -1371,10 +1395,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B4" s="1">
-        <v>0.333333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>
@@ -1452,7 +1476,7 @@
       <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1466,166 +1490,166 @@
       <c r="H11" s="6">
         <v>0.375</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <v>0.833333333333333</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>10329457</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>0.416666666666667</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>10275931</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>0.791666666666667</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>10269213</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>0.791666666666667</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>10297499</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>0.791666666666667</v>
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12">
+    <row r="18" ht="17.75" spans="1:5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11">
         <v>10282845</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>10309482</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>10278058</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>10257377</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>0.791666666666667</v>
       </c>
     </row>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -80,28 +80,13 @@
     <t>الخميس اجازة</t>
   </si>
   <si>
-    <t>ستيفاني بكره وبعده تجمع حضور بس شيفت ٩ الصبح يوم 5 و 6</t>
+    <t>from the 16th of June till the 20th of June</t>
+  </si>
+  <si>
+    <t>Pickup point</t>
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>Stephane Kelada</t>
-  </si>
-  <si>
-    <t>from the 16th of June till the 20th of June</t>
-  </si>
-  <si>
-    <t>Pickup point</t>
   </si>
   <si>
     <t>Name</t>
@@ -201,7 +186,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +198,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -396,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,12 +382,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -614,27 +585,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -805,52 +761,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,77 +824,74 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,43 +899,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1303,7 +1243,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1367,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="14"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="1">
@@ -1450,213 +1390,189 @@
       <c r="C8"/>
       <c r="D8"/>
     </row>
-    <row r="9" ht="16.25" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" ht="16.25" spans="1:9">
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="16.25" spans="6:9">
-      <c r="F11" s="5">
-        <v>10214464</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0.833333333333333</v>
-      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:1">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="B14" s="7">
+        <v>10329457</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D14" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="B15" s="7">
+        <v>10275931</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="D15" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="B16" s="7">
+        <v>10269213</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11">
-        <v>10329457</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D16" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="12">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="10" t="s">
+      <c r="B17" s="7">
+        <v>10297499</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11">
-        <v>10275931</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="D17" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18" ht="17.75" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7">
+        <v>10282845</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D18" s="8">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E18" s="8">
         <v>0.791666666666667</v>
       </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="10" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7">
+        <v>10309482</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="11">
-        <v>10269213</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="D19" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="12">
+      <c r="B20" s="7">
+        <v>10278058</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="8">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E20" s="8">
         <v>0.791666666666667</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="11">
-        <v>10297499</v>
-      </c>
-      <c r="C17" s="11" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12">
+      <c r="B21" s="7">
+        <v>10257377</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E21" s="8">
         <v>0.791666666666667</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" ht="17.75" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11">
-        <v>10282845</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="11">
-        <v>10309482</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="11">
-        <v>10278058</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="11">
-        <v>10257377</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0.791666666666667</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F9:I9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1262,10 +1262,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.708333333333333</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="1">
-        <v>0.333333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1338,7 +1338,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B4" s="1">
-        <v>0.708333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>109 231 6631</t>
   </si>
   <si>
-    <t>No ID</t>
+    <t>Facility</t>
   </si>
   <si>
     <t>فارس طارق</t>
@@ -80,7 +80,7 @@
     <t>الخميس اجازة</t>
   </si>
   <si>
-    <t>from the 16th of June till the 20th of June</t>
+    <t>from the 23rd of June till the 27th of June</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -98,24 +98,7 @@
     <t>Departure</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Shrouk-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>كشك اللحمة</t>
-    </r>
+    <t>Shrouk-كشك اللحمة</t>
   </si>
   <si>
     <t>Wafaa Abdo</t>
@@ -127,12 +110,6 @@
     <t>Lana Sameh</t>
   </si>
   <si>
-    <t>ترسا</t>
-  </si>
-  <si>
-    <t>Habiba Khaled</t>
-  </si>
-  <si>
     <t>كورنيش المعادى شمال طره</t>
   </si>
   <si>
@@ -151,24 +128,7 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Nafora square </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ميدان النافورة</t>
-    </r>
+    <t>Nafora square ميدان النافورة</t>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -186,7 +146,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,12 +172,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.25"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -609,7 +563,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -628,18 +584,24 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -761,133 +723,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,25 +862,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,7 +1207,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1262,10 +1226,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B1" s="1">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1286,10 +1250,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.708333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1338,7 +1302,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B4" s="1">
-        <v>0.833333333333333</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>
@@ -1475,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="7">
-        <v>10269213</v>
+        <v>10297499</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>28</v>
@@ -1489,14 +1453,12 @@
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7">
+        <v>10282845</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="7">
-        <v>10297499</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D17" s="8">
         <v>0.458333333333333</v>
@@ -1506,13 +1468,15 @@
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" ht="17.75" spans="1:5">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="7">
-        <v>10282845</v>
+        <v>10309482</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="8">
         <v>0.458333333333333</v>
@@ -1523,10 +1487,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B19" s="7">
-        <v>10309482</v>
+        <v>10278058</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>32</v>
@@ -1543,7 +1507,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="7">
-        <v>10278058</v>
+        <v>10257377</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>34</v>
@@ -1556,21 +1520,11 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="7">
-        <v>10257377</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.791666666666667</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1229,7 +1229,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B1" s="1">
-        <v>0.666666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="1">
-        <v>0.333333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.708333333333333</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1229,7 +1229,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B1" s="1">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.833333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B2" s="1">
         <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.333333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -80,10 +80,7 @@
     <t>الخميس اجازة</t>
   </si>
   <si>
-    <t>from the 23rd of June till the 27th of June</t>
-  </si>
-  <si>
-    <t>Pickup point</t>
+    <t>from the 30th of June till the 4th of July</t>
   </si>
   <si>
     <t>ID</t>
@@ -104,19 +101,19 @@
     <t>Wafaa Abdo</t>
   </si>
   <si>
+    <t>ترسا</t>
+  </si>
+  <si>
+    <t>Habiba Khaled</t>
+  </si>
+  <si>
+    <t>كورنيش المعادى شمال طره</t>
+  </si>
+  <si>
+    <t>Menna Yehia</t>
+  </si>
+  <si>
     <t>العاشر</t>
-  </si>
-  <si>
-    <t>Lana Sameh</t>
-  </si>
-  <si>
-    <t>كورنيش المعادى شمال طره</t>
-  </si>
-  <si>
-    <t>Menna Yehia</t>
-  </si>
-  <si>
-    <t>Sohaila awad</t>
   </si>
   <si>
     <t>Mennatallah Samir</t>
@@ -146,7 +143,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +158,21 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -723,133 +735,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -861,28 +873,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,7 +1214,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:G5"/>
@@ -1229,7 +1239,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B1" s="1">
-        <v>0.666666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1250,10 +1260,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1369,162 +1379,133 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="F10"/>
-      <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="6:8">
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:1">
-      <c r="A12" t="s">
-        <v>17</v>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="B13" s="8">
+        <v>10329457</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7">
-        <v>10329457</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.75</v>
+      <c r="B14" s="8">
+        <v>10269213</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="7">
-        <v>10275931</v>
-      </c>
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="8">
+      <c r="B15" s="8">
+        <v>10297499</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <v>0.791666666666667</v>
       </c>
-      <c r="H15"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="7">
-        <v>10297499</v>
-      </c>
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="8">
+      <c r="B16" s="8">
+        <v>10309482</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>0.791666666666667</v>
       </c>
-      <c r="H16"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7">
-        <v>10282845</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="8">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10278058</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <v>0.791666666666667</v>
       </c>
-      <c r="H17"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="7">
-        <v>10309482</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8">
+        <v>10257377</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>0.791666666666667</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="7">
-        <v>10278058</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="7">
-        <v>10257377</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -74,7 +74,10 @@
     <t>هناء عبد العال</t>
   </si>
   <si>
-    <t>ميدان ابن الحكم</t>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>دائري المرج</t>
   </si>
   <si>
     <t>الخميس اجازة</t>
@@ -1236,10 +1239,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.708333333333333</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1263,7 +1266,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B2" s="1">
-        <v>0.708333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="B4" s="1">
         <v>0.333333333333333</v>
@@ -1348,13 +1351,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -1383,7 +1386,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -1393,27 +1396,27 @@
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="8">
         <v>10329457</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="9">
         <v>0.416666666666667</v>
@@ -1424,13 +1427,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8">
         <v>10269213</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="9">
         <v>0.458333333333333</v>
@@ -1441,13 +1444,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8">
         <v>10297499</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="9">
         <v>0.458333333333333</v>
@@ -1458,13 +1461,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8">
         <v>10309482</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="9">
         <v>0.458333333333333</v>
@@ -1475,13 +1478,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8">
         <v>10278058</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="9">
         <v>0.458333333333333</v>
@@ -1492,13 +1495,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8">
         <v>10257377</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="9">
         <v>0.458333333333333</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -74,16 +74,16 @@
     <t>هناء عبد العال</t>
   </si>
   <si>
-    <t>دائري</t>
-  </si>
-  <si>
-    <t>دائري المرج</t>
-  </si>
-  <si>
-    <t>الخميس اجازة</t>
-  </si>
-  <si>
-    <t>from the 30th of June till the 4th of July</t>
+    <t>ميدان الحدائق</t>
+  </si>
+  <si>
+    <t>New Cairo site on Friday, July 11th, and Tuesday, July 15th, from 10:00 AM to 6:00 PM.</t>
+  </si>
+  <si>
+    <t>from the 7th of July  till the 11th</t>
+  </si>
+  <si>
+    <t>Pickup point</t>
   </si>
   <si>
     <t>ID</t>
@@ -98,12 +98,38 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>Shrouk-كشك اللحمة</t>
+    <t>Youssef Hamdy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Shrouk-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>كشك اللحمة</t>
+    </r>
   </si>
   <si>
     <t>Wafaa Abdo</t>
   </si>
   <si>
+    <t>العاشر</t>
+  </si>
+  <si>
+    <t>Lana Sameh</t>
+  </si>
+  <si>
     <t>ترسا</t>
   </si>
   <si>
@@ -116,7 +142,7 @@
     <t>Menna Yehia</t>
   </si>
   <si>
-    <t>العاشر</t>
+    <t>Sohaila awad</t>
   </si>
   <si>
     <t>Mennatallah Samir</t>
@@ -128,7 +154,24 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <t>Nafora square ميدان النافورة</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nafora square </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ميدان النافورة</t>
+    </r>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -146,7 +189,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,7 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -179,17 +221,24 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
@@ -554,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -578,29 +627,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -615,10 +647,64 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,137 +824,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,25 +964,38 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1217,7 +1316,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:G5"/>
@@ -1232,14 +1331,14 @@
     <col min="5" max="5" width="15.2363636363636" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.2727272727273" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.6363636363636" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.0636363636364" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.9090909090909" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.72727272727273" customWidth="1"/>
     <col min="10" max="10" width="28.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="B1" s="1">
         <v>0.333333333333333</v>
@@ -1284,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="1">
@@ -1312,10 +1411,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="1">
-        <v>0.833333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B4" s="1">
-        <v>0.333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>
@@ -1351,13 +1450,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -1382,19 +1478,24 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="F10"/>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H10"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1407,106 +1508,150 @@
       <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="G12" s="7">
+        <v>10240270</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10">
         <v>10329457</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11">
         <v>0.416666666666667</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="10">
+        <v>10275931</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10">
         <v>10269213</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10">
+        <v>10297499</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="17" ht="17.75" spans="1:5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="10">
+        <v>10282845</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="9">
+      <c r="B18" s="10">
+        <v>10309482</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E18" s="11">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
-        <v>10297499</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="9">
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="10">
+        <v>10278058</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E19" s="11">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8">
-        <v>10309482</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="9">
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="10">
+        <v>10257377</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="11">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="8">
-        <v>10278058</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="8">
-        <v>10257377</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="E20" s="11">
         <v>0.791666666666667</v>
       </c>
     </row>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -80,7 +80,7 @@
     <t>New Cairo site on Friday, July 11th, and Tuesday, July 15th, from 10:00 AM to 6:00 PM.</t>
   </si>
   <si>
-    <t>from the 7th of July  till the 11th</t>
+    <t>New Cairo from the 14th of July  till the 18th of July</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -101,24 +101,7 @@
     <t>Youssef Hamdy</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Shrouk-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>كشك اللحمة</t>
-    </r>
+    <t>Shrouk-كشك اللحمة</t>
   </si>
   <si>
     <t>Wafaa Abdo</t>
@@ -142,9 +125,6 @@
     <t>Menna Yehia</t>
   </si>
   <si>
-    <t>Sohaila awad</t>
-  </si>
-  <si>
     <t>Mennatallah Samir</t>
   </si>
   <si>
@@ -154,24 +134,7 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Nafora square </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ميدان النافورة</t>
-    </r>
+    <t>Nafora square ميدان النافورة</t>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -189,7 +152,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,12 +196,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.25"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
@@ -603,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -615,19 +572,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -661,18 +605,24 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -824,137 +774,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -964,37 +914,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,7 +1266,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A5" sqref="A3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1362,10 +1309,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.333333333333333</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.833333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1383,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="13"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="1">
@@ -1414,7 +1361,7 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B4" s="1">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C4" s="2">
         <v>1126665095</v>
@@ -1514,10 +1461,10 @@
       <c r="H12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>0.416666666666667</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>0.75</v>
       </c>
     </row>
@@ -1589,10 +1536,12 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="17" ht="17.75" spans="1:5">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="10">
-        <v>10282845</v>
+        <v>10309482</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>32</v>
@@ -1606,13 +1555,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" s="10">
-        <v>10309482</v>
+        <v>10278058</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="11">
         <v>0.458333333333333</v>
@@ -1623,13 +1572,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="10">
-        <v>10278058</v>
+        <v>10257377</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="11">
         <v>0.458333333333333</v>
@@ -1639,21 +1588,11 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="10">
-        <v>10257377</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.791666666666667</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -77,9 +77,6 @@
     <t>ميدان الحدائق</t>
   </si>
   <si>
-    <t>New Cairo site on Friday, July 11th, and Tuesday, July 15th, from 10:00 AM to 6:00 PM.</t>
-  </si>
-  <si>
     <t>New Cairo from the 14th of July  till the 18th of July</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>Departure</t>
-  </si>
-  <si>
-    <t>Youssef Hamdy</t>
   </si>
   <si>
     <t>Shrouk-كشك اللحمة</t>
@@ -152,7 +146,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +183,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
@@ -560,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -625,36 +612,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,137 +731,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -922,12 +879,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
@@ -937,12 +888,8 @@
     <xf numFmtId="179" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1266,7 +1213,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A3:G5"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1285,7 +1232,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="1">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>0.333333333333333</v>
@@ -1309,10 +1256,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="1">
-        <v>0.333333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>
@@ -1330,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="1">
@@ -1425,165 +1372,155 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="F10"/>
-      <c r="G10" s="3" t="s">
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="7">
-        <v>10240270</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="B13" s="8">
+        <v>10329457</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="13">
+      <c r="D13" s="9">
         <v>0.416666666666667</v>
       </c>
-      <c r="J12" s="14">
+      <c r="E13" s="9">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10">
-        <v>10329457</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B14" s="8">
+        <v>10275931</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="D14" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10">
-        <v>10275931</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B15" s="8">
+        <v>10269213</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="9">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10">
-        <v>10269213</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B16" s="8">
+        <v>10297499</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="9">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10309482</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10">
-        <v>10297499</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="D17" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="11">
+      <c r="B18" s="8">
+        <v>10278058</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E18" s="9">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="10">
-        <v>10309482</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="11">
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="8">
+        <v>10257377</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="11">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="10">
-        <v>10278058</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="10">
-        <v>10257377</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>0.791666666666667</v>
       </c>
     </row>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="1">
-        <v>0.333333333333333</v>
+        <v>0.666666666666666</v>
       </c>
       <c r="B2" s="1">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -77,7 +77,10 @@
     <t>ميدان الحدائق</t>
   </si>
   <si>
-    <t>New Cairo from the 14th of July  till the 18th of July</t>
+    <t>يوم الخميس من 12 ل 6</t>
+  </si>
+  <si>
+    <t>New Cairo from 21st of July to 25th of July</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -95,7 +98,24 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>Shrouk-كشك اللحمة</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Shrouk-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>كشك اللحمة</t>
+    </r>
   </si>
   <si>
     <t>Wafaa Abdo</t>
@@ -119,6 +139,9 @@
     <t>Menna Yehia</t>
   </si>
   <si>
+    <t>Sohaila awad</t>
+  </si>
+  <si>
     <t>Mennatallah Samir</t>
   </si>
   <si>
@@ -128,7 +151,24 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <t>Nafora square ميدان النافورة</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nafora square </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ميدان النافورة</t>
+    </r>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -146,7 +186,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,10 +205,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -177,9 +223,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -335,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,13 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B5394"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,12 +541,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,9 +611,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -592,24 +630,18 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -731,164 +763,178 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,143 +1259,148 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.9090909090909" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.0909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.36363636363636" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.2363636363636" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.2727272727273" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.6363636363636" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.9090909090909" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.9090909090909" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.3636363636364" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.0909090909091" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.36363636363636" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.2363636363636" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.2727272727273" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6363636363636" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.8727272727273" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.72727272727273" customWidth="1"/>
     <col min="10" max="10" width="28.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:10">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.333333333333333</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="3">
+        <v>1206043573</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" ht="16" customHeight="1" spans="1:9">
+      <c r="A3" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C3" s="3">
+        <v>1112572011</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:10">
-      <c r="A2" s="1">
-        <v>0.666666666666666</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:9">
+      <c r="A4" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1126665095</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:8">
+      <c r="A5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>1206043573</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" ht="16" customHeight="1" spans="1:9">
-      <c r="A3" s="1">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1112572011</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" ht="16" customHeight="1" spans="1:9">
-      <c r="A4" s="1">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1126665095</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:9">
-      <c r="A5" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8"/>
@@ -1364,7 +1415,7 @@
       <c r="D9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10"/>
@@ -1376,162 +1427,171 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="11">
         <v>10329457</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12">
         <v>0.416666666666667</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="12">
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8">
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11">
         <v>10275931</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11">
+        <v>10269213</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="11">
+        <v>10297499</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.25" spans="1:5">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11">
+        <v>10282845</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9">
+      <c r="B18" s="11">
+        <v>10309482</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E18" s="12">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8">
-        <v>10269213</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9">
+    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11">
+        <v>10278058</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E19" s="12">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8">
-        <v>10297499</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="9">
+    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="11">
+        <v>10257377</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="12">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E20" s="12">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8">
-        <v>10309482</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="8">
-        <v>10278058</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="8">
-        <v>10257377</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -77,10 +77,22 @@
     <t>ميدان الحدائق</t>
   </si>
   <si>
-    <t>يوم الخميس من 12 ل 6</t>
-  </si>
-  <si>
-    <t>New Cairo from 21st of July to 25th of July</t>
+    <t>اجازة سبت و حد</t>
+  </si>
+  <si>
+    <t>109 793 5118/12 83085247</t>
+  </si>
+  <si>
+    <t>محمد علام</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>مدخل حلوان</t>
+  </si>
+  <si>
+    <t>New Cairo from the 28th of July  till the 1st of August</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -98,24 +110,7 @@
     <t>Departure</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Shrouk-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>كشك اللحمة</t>
-    </r>
+    <t>Shrouk-كشك اللحمة</t>
   </si>
   <si>
     <t>Wafaa Abdo</t>
@@ -139,9 +134,6 @@
     <t>Menna Yehia</t>
   </si>
   <si>
-    <t>Sohaila awad</t>
-  </si>
-  <si>
     <t>Mennatallah Samir</t>
   </si>
   <si>
@@ -151,24 +143,7 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Nafora square </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ميدان النافورة</t>
-    </r>
+    <t>Nafora square ميدان النافورة</t>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -186,7 +161,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,12 +184,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -223,9 +192,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -381,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +366,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B5394"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +592,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -630,18 +613,24 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -763,70 +752,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,10 +818,10 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,10 +830,10 @@
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,22 +842,22 @@
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -883,13 +866,19 @@
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,25 +905,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1267,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="B1" s="2">
-        <v>0.708333333333333</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1302,10 +1291,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1351,10 +1340,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>0.708333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1399,7 +1388,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="8:8">
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="8" spans="1:4">
@@ -1428,7 +1438,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1439,154 +1449,146 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="12">
         <v>10329457</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="13">
         <v>0.416666666666667</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="13">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="12">
         <v>10275931</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11">
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="12">
         <v>10269213</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12">
+        <v>10297499</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11">
-        <v>10297499</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="B17" s="12">
+        <v>10309482</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="13">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.25" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11">
-        <v>10282845</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="12">
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12">
+        <v>10278058</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="13">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="11">
-        <v>10309482</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="12">
+    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="12">
+        <v>10257377</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="13">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="13">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="11">
-        <v>10278058</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="11">
-        <v>10257377</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.791666666666667</v>
-      </c>
+    <row r="20" s="1" customFormat="1" ht="14.5" spans="1:5">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1267,10 +1267,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B1" s="2">
-        <v>0</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="2">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="2">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -92,7 +92,8 @@
     <t>مدخل حلوان</t>
   </si>
   <si>
-    <t>New Cairo from the 28th of July  till the 1st of August</t>
+    <t xml:space="preserve">New Cairo from 4th of August to 8th of August
+</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -110,7 +111,24 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>Shrouk-كشك اللحمة</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Shrouk-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>كشك اللحمة</t>
+    </r>
   </si>
   <si>
     <t>Wafaa Abdo</t>
@@ -134,6 +152,9 @@
     <t>Menna Yehia</t>
   </si>
   <si>
+    <t>Sohaila awad</t>
+  </si>
+  <si>
     <t>Mennatallah Samir</t>
   </si>
   <si>
@@ -143,7 +164,24 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <t>Nafora square ميدان النافورة</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Nafora square </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ميدان النافورة</t>
+    </r>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -161,7 +199,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +233,12 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -592,9 +636,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -613,24 +655,18 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -752,137 +788,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -903,27 +939,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,7 +1288,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1267,10 +1307,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>0.708333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1291,10 +1331,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="2">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.708333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1312,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="14"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1340,10 +1380,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B4" s="2">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1440,155 +1480,163 @@
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="G11"/>
       <c r="H11"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <v>10329457</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>0.416666666666667</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>10275931</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="14">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="13">
         <v>10269213</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="14">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="13">
         <v>10297499</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="14">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A17" s="11" t="s">
+    <row r="17" s="1" customFormat="1" ht="18.25" spans="1:5">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13">
+        <v>10282845</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B18" s="13">
         <v>10309482</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="14">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="14">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="12">
+    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="13">
         <v>10278058</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="14">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="14">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="12">
+    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="13">
         <v>10257377</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="14">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="14">
         <v>0.791666666666667</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="14.5" spans="1:5">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="2">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="2">
-        <v>0.791666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510"/>
+    <workbookView windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -92,8 +92,7 @@
     <t>مدخل حلوان</t>
   </si>
   <si>
-    <t xml:space="preserve">New Cairo from 4th of August to 8th of August
-</t>
+    <t>New Cairo from the 11th of august till the 15th</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -111,24 +110,7 @@
     <t>Departure</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Shrouk-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>كشك اللحمة</t>
-    </r>
+    <t>Shrouk-كشك اللحمة</t>
   </si>
   <si>
     <t>Wafaa Abdo</t>
@@ -152,9 +134,6 @@
     <t>Menna Yehia</t>
   </si>
   <si>
-    <t>Sohaila awad</t>
-  </si>
-  <si>
     <t>Mennatallah Samir</t>
   </si>
   <si>
@@ -164,24 +143,7 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Nafora square </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ميدان النافورة</t>
-    </r>
+    <t>Nafora square ميدان النافورة</t>
   </si>
   <si>
     <t>Mohamed Ismail</t>
@@ -199,7 +161,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,12 +195,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -636,7 +592,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -655,18 +613,24 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -788,137 +752,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -945,25 +909,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1288,7 +1251,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1307,10 +1270,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B1" s="2">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1331,10 +1294,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="2">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.708333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1352,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="16"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1380,10 +1343,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1572,10 +1535,12 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.25" spans="1:5">
-      <c r="A17" s="15"/>
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A17" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="13">
-        <v>10282845</v>
+        <v>10309482</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>35</v>
@@ -1589,13 +1554,13 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A18" s="12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13">
-        <v>10309482</v>
+        <v>10278058</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="14">
         <v>0.458333333333333</v>
@@ -1606,13 +1571,13 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A19" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="13">
-        <v>10278058</v>
+        <v>10257377</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="14">
         <v>0.458333333333333</v>
@@ -1621,22 +1586,12 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="13">
-        <v>10257377</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.791666666666667</v>
-      </c>
+    <row r="20" s="1" customFormat="1" ht="14.5" spans="1:5">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7060"/>
+    <workbookView windowWidth="19200" windowHeight="7510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="2">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="2">
-        <v>0.791666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>مدخل حلوان</t>
+  </si>
+  <si>
+    <t>No ID</t>
+  </si>
+  <si>
+    <t>عمر سكر</t>
+  </si>
+  <si>
+    <t>م - المقطم</t>
+  </si>
+  <si>
+    <t>كريم بنونه</t>
   </si>
   <si>
     <t>New Cairo from the 11th of august till the 15th</t>
@@ -882,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -898,6 +910,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1251,7 +1269,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1270,10 +1288,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.375</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="B1" s="2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1294,10 +1312,10 @@
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="2">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.708333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1315,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="15"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1415,11 +1433,31 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1155792366</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9"/>
@@ -1428,7 +1466,7 @@
       <c r="D9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10"/>
@@ -1440,149 +1478,149 @@
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="G11"/>
       <c r="H11"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15">
         <v>10329457</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="C13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="16">
         <v>0.416666666666667</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="15">
         <v>10275931</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="16">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="A15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="15">
         <v>10269213</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="16">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="15">
+        <v>10297499</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="13">
-        <v>10297499</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="B17" s="15">
+        <v>10309482</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="16">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="13">
-        <v>10309482</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="14">
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="15">
+        <v>10278058</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="16">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="13">
-        <v>10278058</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="14">
+    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="15">
+        <v>10257377</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="14">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="13">
-        <v>10257377</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="E19" s="16">
         <v>0.791666666666667</v>
       </c>
     </row>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -92,19 +92,19 @@
     <t>مدخل حلوان</t>
   </si>
   <si>
-    <t>No ID</t>
-  </si>
-  <si>
-    <t>عمر سكر</t>
-  </si>
-  <si>
-    <t>م - المقطم</t>
-  </si>
-  <si>
-    <t>كريم بنونه</t>
-  </si>
-  <si>
-    <t>New Cairo from the 11th of august till the 15th</t>
+    <t>CIM</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Aaways</t>
+  </si>
+  <si>
+    <t>off days</t>
+  </si>
+  <si>
+    <t>New Cairo from the 18th of August  till the 22nd of August</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -122,19 +122,31 @@
     <t>Departure</t>
   </si>
   <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Sat-Sun</t>
+  </si>
+  <si>
     <t>Shrouk-كشك اللحمة</t>
   </si>
   <si>
     <t>Wafaa Abdo</t>
   </si>
   <si>
+    <t>Omar Ahmed Sukkar</t>
+  </si>
+  <si>
     <t>العاشر</t>
   </si>
   <si>
     <t>Lana Sameh</t>
   </si>
   <si>
-    <t>ترسا</t>
+    <t>ميدان الحصري</t>
   </si>
   <si>
     <t>Habiba Khaled</t>
@@ -173,7 +185,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +200,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -210,6 +229,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
@@ -218,6 +244,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -362,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +415,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,6 +445,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -580,12 +630,42 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -645,6 +725,117 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,137 +955,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -911,41 +1102,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1266,10 +1502,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1283,15 +1519,15 @@
     <col min="7" max="7" width="17.6363636363636" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.8727272727273" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.72727272727273" customWidth="1"/>
-    <col min="10" max="10" width="28.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1310,7 +1546,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:10">
+    <row r="2" ht="16" customHeight="1" spans="1:10">
       <c r="A2" s="2">
         <v>0.375</v>
       </c>
@@ -1333,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="17"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1361,10 +1597,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1434,30 +1670,14 @@
       <c r="H6" s="5"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1155792366</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9"/>
@@ -1468,159 +1688,197 @@
       <c r="G9"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" ht="16" spans="1:11">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9" t="s">
+    <row r="11" ht="16" spans="1:11">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="G11"/>
-      <c r="H11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A12" s="11" t="s">
+    <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
+      <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="15">
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:11">
+      <c r="A13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="17">
         <v>10329457</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="18">
         <v>0.416666666666667</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="18">
         <v>0.75</v>
       </c>
+      <c r="G13" s="19">
+        <v>10272767</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J13" s="32">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="17">
         <v>10275931</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="C14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="A15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="17">
         <v>10269213</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="C15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="17">
         <v>10297499</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="C16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="A17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="17">
         <v>10309482</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="15">
+      <c r="A18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="17">
         <v>10278058</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="C18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="A19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="17">
         <v>10257377</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="C19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
@@ -1632,8 +1890,13 @@
       <c r="E20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1505,7 +1505,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:10">
       <c r="A2" s="2">
-        <v>0.375</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="B2" s="2">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.666666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>New Cairo from the 18th of August  till the 22nd of August</t>
+    <t>New Cairo from Monday, the 1st, till Friday, the 5th of September</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -1124,22 +1124,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1524,7 +1524,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="B1" s="2">
         <v>0.375</v>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:10">
       <c r="A2" s="2">
-        <v>0.333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.708333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1882,12 +1882,12 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="14.5" spans="1:5">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1524,7 +1524,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.916666666666667</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0.375</v>
@@ -1551,7 +1551,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>New Cairo from Monday, the 1st, till Friday, the 5th of September</t>
+    <t>New Cairo from Monday, the 8th, till Friday, the 14th of September</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -146,7 +146,7 @@
     <t>Lana Sameh</t>
   </si>
   <si>
-    <t>ميدان الحصري</t>
+    <t>ترسا</t>
   </si>
   <si>
     <t>Habiba Khaled</t>
@@ -218,7 +218,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -400,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,12 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +955,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,16 +979,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1003,85 +997,85 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,19 +1126,19 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1505,7 +1499,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1597,10 +1591,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>New Cairo from Monday, the 8th, till Friday, the 14th of September</t>
+    <t>New Cairo from the 15th of September till the 19th of September.</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -218,44 +218,44 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <i/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -400,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +961,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,16 +985,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -997,89 +1003,89 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1112,9 +1118,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,22 +1126,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1496,10 +1499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection activeCell="B13" sqref="B13:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1563,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="21"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1694,11 +1697,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1706,183 +1709,185 @@
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
-      <c r="A12" s="13" t="s">
+    <row r="12" s="1" customFormat="1" ht="14.5" spans="1:11">
+      <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A13" s="16" t="s">
+    <row r="13" s="1" customFormat="1" ht="14.5" spans="1:11">
+      <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>10329457</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>0.416666666666667</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.75</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>10272767</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="30"/>
+      <c r="K13" s="29"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="16" t="s">
+    <row r="14" s="1" customFormat="1" ht="14.5" spans="1:5">
+      <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>10275931</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>10269213</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A16" s="16" t="s">
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:7">
+      <c r="A16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>10297499</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>0.791666666666667</v>
       </c>
+      <c r="G16"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>10309482</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>10278058</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A19" s="16" t="s">
+    <row r="19" s="1" customFormat="1" ht="14.5" spans="1:5">
+      <c r="A19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>10257377</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
+    <row r="20" s="1" customFormat="1" ht="16.25" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
+    <row r="21" ht="16.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A11:E11"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1499,10 +1499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E19"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1521,10 +1521,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B1" s="2">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B4" s="2">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="B6" s="2">
         <v>0.375</v>
@@ -1719,7 +1719,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="26"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="14.5" spans="1:11">
+    <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="14.5" spans="1:11">
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:11">
       <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="K13" s="29"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="14.5" spans="1:5">
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="14.5" spans="1:5">
+    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A19" s="15" t="s">
         <v>46</v>
       </c>
@@ -1880,14 +1880,13 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.25" spans="1:5">
+    <row r="20" s="1" customFormat="1" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="16.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A11:E11"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1521,10 +1521,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B1" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.875</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>New Cairo from the 15th of September till the 19th of September.</t>
+    <t>New Cairo from the 22nd of September till the 26th of September</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -218,13 +218,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1126,16 +1126,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1548,7 +1548,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1521,10 +1521,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="B1" s="2">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <v>0.375</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>New Cairo from the 22nd of September till the 26th of September</t>
+    <t>New Cairo from the 29th of September till the 3rd of October,</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Habiba Khaled</t>
+  </si>
+  <si>
+    <t>Please note that on Tuesday, the 30th, we will be going to the Smart Village site</t>
   </si>
   <si>
     <t>كورنيش المعادى شمال طره</t>
@@ -1085,7 +1088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1121,28 +1124,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,7 +1508,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1521,10 +1527,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1548,7 +1554,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1566,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1597,7 +1603,7 @@
         <v>0.375</v>
       </c>
       <c r="B4" s="2">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1697,11 +1703,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1715,9 +1721,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1737,13 +1743,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1769,13 +1775,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="31">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1794,7 +1800,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:6">
       <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
@@ -1810,16 +1816,19 @@
       <c r="E15" s="17">
         <v>0.791666666666667</v>
       </c>
+      <c r="F15" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:7">
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A16" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="16">
         <v>10297499</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="17">
         <v>0.458333333333333</v>
@@ -1827,7 +1836,6 @@
       <c r="E16" s="17">
         <v>0.791666666666667</v>
       </c>
-      <c r="G16"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A17" s="15" t="s">
@@ -1837,7 +1845,7 @@
         <v>10309482</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="17">
         <v>0.458333333333333</v>
@@ -1848,13 +1856,13 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A18" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="16">
         <v>10278058</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="17">
         <v>0.458333333333333</v>
@@ -1865,13 +1873,13 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A19" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="16">
         <v>10257377</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="17">
         <v>0.458333333333333</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>New Cairo from the 29th of September till the 3rd of October,</t>
+    <t>New Cairo from the 6th of October till the 10th of October</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Habiba Khaled</t>
-  </si>
-  <si>
-    <t>Please note that on Tuesday, the 30th, we will be going to the Smart Village site</t>
   </si>
   <si>
     <t>كورنيش المعادى شمال طره</t>
@@ -1088,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1124,31 +1121,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,7 +1502,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1527,10 +1521,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B1" s="2">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1572,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="21"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1703,11 +1697,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1721,9 +1715,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1743,13 +1737,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1764,10 +1758,10 @@
         <v>35</v>
       </c>
       <c r="D13" s="17">
-        <v>0.416666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="E13" s="17">
-        <v>0.75</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="G13" s="18">
         <v>10272767</v>
@@ -1775,13 +1769,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="30"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1816,19 +1810,17 @@
       <c r="E15" s="17">
         <v>0.791666666666667</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="F15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A16" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="16">
         <v>10297499</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="17">
         <v>0.458333333333333</v>
@@ -1845,7 +1837,7 @@
         <v>10309482</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="17">
         <v>0.458333333333333</v>
@@ -1856,13 +1848,13 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A18" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="16">
         <v>10278058</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="17">
         <v>0.458333333333333</v>
@@ -1873,13 +1865,13 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A19" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="16">
         <v>10257377</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="17">
         <v>0.458333333333333</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1521,10 +1521,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.75</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="B4" s="2">
         <v>0.375</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>New Cairo from the 6th of October till the 10th of October</t>
+    <t>New Cairo from the 13th of October till the 17th of October,</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Mohamed Ismail</t>
+  </si>
+  <si>
+    <t>Also, please note that Wafaa Abdo (10329457) will be arriving on Monday, the 13th, at 12:00 PM instead of 11:00 AM</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +221,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -236,6 +239,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
@@ -400,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,12 +443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,137 +958,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1121,63 +1124,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1521,10 +1532,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B1" s="2">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1548,7 +1559,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1566,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1594,7 +1605,7 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.916666666666667</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>0.375</v>
@@ -1697,11 +1708,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1715,9 +1726,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1737,13 +1748,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1760,22 +1771,22 @@
       <c r="D13" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="18">
         <v>0.791666666666667</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="19">
         <v>10272767</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1787,10 +1798,10 @@
       <c r="C14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
@@ -1804,10 +1815,10 @@
       <c r="C15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="18">
         <v>0.791666666666667</v>
       </c>
       <c r="F15"/>
@@ -1822,10 +1833,10 @@
       <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
@@ -1839,10 +1850,10 @@
       <c r="C17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
@@ -1856,10 +1867,10 @@
       <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
@@ -1873,19 +1884,26 @@
       <c r="C19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="18">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="18">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+    <row r="20" s="1" customFormat="1" ht="17.5" spans="1:10">
+      <c r="A20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Mohamed Ismail</t>
-  </si>
-  <si>
-    <t>Also, please note that Wafaa Abdo (10329457) will be arriving on Monday, the 13th, at 12:00 PM instead of 11:00 AM</t>
   </si>
 </sst>
 </file>
@@ -188,7 +185,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,12 +233,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -958,137 +949,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1138,7 +1129,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1150,45 +1141,40 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1510,10 +1496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1532,10 +1518,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B1" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1559,7 +1545,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1577,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="24"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1708,11 +1694,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1726,9 +1712,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1748,13 +1734,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1780,13 +1766,13 @@
       <c r="H13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="31">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="32">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="33"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1890,20 +1876,6 @@
       <c r="E19" s="18">
         <v>0.791666666666667</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="17.5" spans="1:10">
-      <c r="A20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>New Cairo from the 13th of October till the 17th of October,</t>
+    <t>New Cairo from the 20th of October till the 24th of October.</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -218,7 +218,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -400,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +961,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,16 +985,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -997,89 +1003,89 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1115,30 +1121,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1185,7 +1188,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1499,7 +1502,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1518,7 +1521,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.916666666666667</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0.375</v>
@@ -1545,7 +1548,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.708333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1563,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="21"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1591,10 +1594,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1694,11 +1697,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1712,9 +1715,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1734,13 +1737,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1757,22 +1760,22 @@
       <c r="D13" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.791666666666667</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>10272767</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="31">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="30"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1784,11 +1787,11 @@
       <c r="C14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="18">
-        <v>0.791666666666667</v>
+      <c r="E14" s="17">
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:6">
@@ -1801,11 +1804,11 @@
       <c r="C15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="18">
-        <v>0.791666666666667</v>
+      <c r="E15" s="17">
+        <v>0.833333333333333</v>
       </c>
       <c r="F15"/>
     </row>
@@ -1819,11 +1822,11 @@
       <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="18">
-        <v>0.791666666666667</v>
+      <c r="E16" s="17">
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
@@ -1836,11 +1839,11 @@
       <c r="C17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="18">
-        <v>0.791666666666667</v>
+      <c r="E17" s="17">
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
@@ -1853,11 +1856,11 @@
       <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E18" s="18">
-        <v>0.791666666666667</v>
+      <c r="E18" s="17">
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
@@ -1870,11 +1873,11 @@
       <c r="C19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="18">
-        <v>0.791666666666667</v>
+      <c r="E19" s="17">
+        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="G5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1521,10 +1521,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="B1" s="2">
-        <v>0.375</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.75</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.666666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -110,12 +110,12 @@
     <t>Pickup point</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>arrival</t>
   </si>
   <si>
@@ -131,27 +131,15 @@
     <t>Sat-Sun</t>
   </si>
   <si>
-    <t>Shrouk-كشك اللحمة</t>
-  </si>
-  <si>
-    <t>Wafaa Abdo</t>
+    <t>العاشر</t>
+  </si>
+  <si>
+    <t>Lana Sameh</t>
   </si>
   <si>
     <t>Omar Ahmed Sukkar</t>
   </si>
   <si>
-    <t>العاشر</t>
-  </si>
-  <si>
-    <t>Lana Sameh</t>
-  </si>
-  <si>
-    <t>ترسا</t>
-  </si>
-  <si>
-    <t>Habiba Khaled</t>
-  </si>
-  <si>
     <t>كورنيش المعادى شمال طره</t>
   </si>
   <si>
@@ -167,10 +155,7 @@
     <t>Ahmed Belal</t>
   </si>
   <si>
-    <t>Nafora square ميدان النافورة</t>
-  </si>
-  <si>
-    <t>Mohamed Ismail</t>
+    <t>Please note that Monday 27th of October the team will be going to Smart village.</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1143,6 +1128,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,7 +1493,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="A5:G5"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1521,10 +1512,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.541666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="B1" s="2">
-        <v>0.916666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1548,7 +1539,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1566,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1594,7 +1585,7 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.916666666666667</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>0.375</v>
@@ -1697,11 +1688,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1715,9 +1706,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1737,13 +1728,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1751,17 +1742,17 @@
       <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="16">
-        <v>10329457</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>35</v>
+      </c>
+      <c r="C13" s="16">
+        <v>10275931</v>
       </c>
       <c r="D13" s="17">
         <v>0.458333333333333</v>
       </c>
       <c r="E13" s="17">
-        <v>0.791666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G13" s="18">
         <v>10272767</v>
@@ -1769,23 +1760,23 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="33">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="16">
-        <v>10275931</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>38</v>
+      </c>
+      <c r="C14" s="16">
+        <v>10297499</v>
       </c>
       <c r="D14" s="17">
         <v>0.458333333333333</v>
@@ -1796,13 +1787,13 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:6">
       <c r="A15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="16">
-        <v>10269213</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>40</v>
+      <c r="C15" s="16">
+        <v>10309482</v>
       </c>
       <c r="D15" s="17">
         <v>0.458333333333333</v>
@@ -1814,13 +1805,13 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="16">
-        <v>10297499</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>42</v>
+      <c r="C16" s="16">
+        <v>10278058</v>
       </c>
       <c r="D16" s="17">
         <v>0.458333333333333</v>
@@ -1829,56 +1820,29 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="16">
-        <v>10309482</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0.833333333333333</v>
-      </c>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="16">
-        <v>10278058</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.833333333333333</v>
-      </c>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="16">
-        <v>10257377</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.833333333333333</v>
-      </c>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -110,10 +110,10 @@
     <t>Pickup point</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>arrival</t>
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1515,7 +1515,7 @@
         <v>0.375</v>
       </c>
       <c r="B1" s="2">
-        <v>0.75</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1742,11 +1742,11 @@
       <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="16">
+        <v>10275931</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="16">
-        <v>10275931</v>
       </c>
       <c r="D13" s="17">
         <v>0.458333333333333</v>
@@ -1772,11 +1772,11 @@
       <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="16">
+        <v>10297499</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="16">
-        <v>10297499</v>
       </c>
       <c r="D14" s="17">
         <v>0.458333333333333</v>
@@ -1789,11 +1789,11 @@
       <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="16">
+        <v>10309482</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="16">
-        <v>10309482</v>
       </c>
       <c r="D15" s="17">
         <v>0.458333333333333</v>
@@ -1807,11 +1807,11 @@
       <c r="A16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="16">
+        <v>10278058</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="16">
-        <v>10278058</v>
       </c>
       <c r="D16" s="17">
         <v>0.458333333333333</v>
@@ -1823,7 +1823,6 @@
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
@@ -1832,7 +1831,6 @@
         <v>42</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -1840,7 +1838,6 @@
     <row r="19" s="1" customFormat="1" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1493,7 +1493,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="G5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1512,10 +1512,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B1" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.708333333333333</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.75</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="B4" s="2">
-        <v>0.375</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>New Cairo from the 20th of October till the 24th of October.</t>
+    <t>schedule for the team for the upcoming week (3/11/2025 to 7/11/2025</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -131,15 +131,21 @@
     <t>Sat-Sun</t>
   </si>
   <si>
+    <t>Shrouk-كشك اللحمة</t>
+  </si>
+  <si>
+    <t>Wafaa Abdo</t>
+  </si>
+  <si>
+    <t>Omar Ahmed Sukkar</t>
+  </si>
+  <si>
     <t>العاشر</t>
   </si>
   <si>
     <t>Lana Sameh</t>
   </si>
   <si>
-    <t>Omar Ahmed Sukkar</t>
-  </si>
-  <si>
     <t>كورنيش المعادى شمال طره</t>
   </si>
   <si>
@@ -153,9 +159,6 @@
   </si>
   <si>
     <t>Ahmed Belal</t>
-  </si>
-  <si>
-    <t>Please note that Monday 27th of October the team will be going to Smart village.</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1128,12 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1490,10 +1487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="A5:G5"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1512,7 +1509,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.916666666666667</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0.375</v>
@@ -1539,7 +1536,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1557,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="22"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1585,10 +1582,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.541666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="B4" s="2">
-        <v>0.916666666666667</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1688,11 +1685,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1706,9 +1703,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1728,13 +1725,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1743,7 +1740,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="16">
-        <v>10275931</v>
+        <v>10329457</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>35</v>
@@ -1752,7 +1749,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="E13" s="17">
-        <v>0.833333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="G13" s="18">
         <v>10272767</v>
@@ -1760,20 +1757,20 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="30">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="31">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="31"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="16">
-        <v>10297499</v>
+        <v>10275931</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>38</v>
@@ -1787,13 +1784,13 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:6">
       <c r="A15" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="16">
-        <v>10309482</v>
+        <v>10297499</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="17">
         <v>0.458333333333333</v>
@@ -1805,10 +1802,10 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A16" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" s="16">
-        <v>10278058</v>
+        <v>10309482</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>41</v>
@@ -1820,26 +1817,28 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="16">
+        <v>10278058</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.833333333333333</v>
+      </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+      <selection activeCell="A6" sqref="A5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.666666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:G6"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1509,7 +1509,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="B1" s="2">
         <v>0.375</v>
@@ -1536,7 +1536,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>Ahmed Belal</t>
+  </si>
+  <si>
+    <t>Madinaty</t>
+  </si>
+  <si>
+    <t>Aliaa Abouelazem</t>
+  </si>
+  <si>
+    <t>Please Note that Aliaa Abouelazem will be going to Smart Village on Monday then will be switching back to new cairo for the rest of the week.</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1082,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1109,28 +1118,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1487,10 +1502,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1509,7 +1524,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0.375</v>
@@ -1536,7 +1551,7 @@
         <v>0.375</v>
       </c>
       <c r="B2" s="2">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C2" s="3">
         <v>1206043573</v>
@@ -1554,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1582,10 +1597,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>0.791666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1685,11 +1700,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1703,9 +1718,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1725,13 +1740,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1757,13 +1772,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="32">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="33">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1782,7 +1797,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:6">
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
@@ -1798,7 +1813,6 @@
       <c r="E15" s="17">
         <v>0.833333333333333</v>
       </c>
-      <c r="F15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A16" s="15" t="s">
@@ -1834,11 +1848,34 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="16">
+        <v>10272462</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Aliaa Abouelazem</t>
-  </si>
-  <si>
-    <t>Please Note that Aliaa Abouelazem will be going to Smart Village on Monday then will be switching back to new cairo for the rest of the week.</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1140,12 +1137,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,10 +1493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1524,10 +1515,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="B1" s="2">
-        <v>0.375</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1569,7 +1560,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="22"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1597,10 +1588,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1700,11 +1691,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1718,9 +1709,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1740,13 +1731,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1772,13 +1763,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="30">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="31">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="31"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1797,7 +1788,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:5">
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
@@ -1813,8 +1804,13 @@
       <c r="E15" s="17">
         <v>0.833333333333333</v>
       </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:5">
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A16" s="15" t="s">
         <v>37</v>
       </c>
@@ -1830,8 +1826,13 @@
       <c r="E16" s="17">
         <v>0.833333333333333</v>
       </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:5">
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A17" s="15" t="s">
         <v>42</v>
       </c>
@@ -1847,8 +1848,13 @@
       <c r="E17" s="17">
         <v>0.833333333333333</v>
       </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:5">
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -1864,18 +1870,16 @@
       <c r="E18" s="17">
         <v>0.75</v>
       </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+    <row r="19" spans="6:8">
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1518,7 +1518,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="B1" s="2">
-        <v>0.291666666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1515,10 +1515,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.416666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="B1" s="2">
-        <v>0.791666666666667</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>schedule for the team for the upcoming week (3/11/2025 to 7/11/2025</t>
+    <t>week (17/11/2025 to 21/11/2025)</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>Aliaa Abouelazem</t>
+  </si>
+  <si>
+    <t>Can we have the next two days (Wednesday and Thursday) for the below employee to be Smart Village</t>
+  </si>
+  <si>
+    <t>Name: Aliaa Abouelazem</t>
+  </si>
+  <si>
+    <t>collection point: Madinaty</t>
+  </si>
+  <si>
+    <t>ID: 10272462</t>
   </si>
 </sst>
 </file>
@@ -179,7 +191,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +224,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -230,6 +242,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
@@ -394,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +446,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,137 +961,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,57 +1135,64 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1493,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1515,10 +1534,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1560,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1588,10 +1607,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="B4" s="2">
-        <v>0.375</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1691,11 +1710,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1709,9 +1728,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1731,13 +1750,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1763,13 +1782,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1854,7 +1873,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:10">
+    <row r="18" s="1" customFormat="1" ht="14.5" spans="1:10">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -1876,10 +1895,67 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="6:8">
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
+    <row r="19" ht="17.5" spans="1:12">
+      <c r="A19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" ht="17.5" spans="1:8">
+      <c r="A21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" ht="17.5" spans="1:8">
+      <c r="A22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" ht="17.5" spans="1:8">
+      <c r="A23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1091,7 +1091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1151,7 +1151,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1515,7 +1514,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1534,10 +1533,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="B1" s="2">
         <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.375</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1579,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="24"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1710,11 +1709,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1728,9 +1727,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1750,13 +1749,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1782,13 +1781,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="33"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1873,7 +1872,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="14.5" spans="1:10">
+    <row r="18" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -1906,14 +1905,14 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1937,7 +1936,7 @@
       <c r="A22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1949,7 +1948,7 @@
       <c r="A23" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>week (17/11/2025 to 21/11/2025)</t>
+    <t>schedule for the team for the upcoming week (24/11/2025 to 28/11/2025)</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -165,18 +165,6 @@
   </si>
   <si>
     <t>Aliaa Abouelazem</t>
-  </si>
-  <si>
-    <t>Can we have the next two days (Wednesday and Thursday) for the below employee to be Smart Village</t>
-  </si>
-  <si>
-    <t>Name: Aliaa Abouelazem</t>
-  </si>
-  <si>
-    <t>collection point: Madinaty</t>
-  </si>
-  <si>
-    <t>ID: 10272462</t>
   </si>
 </sst>
 </file>
@@ -191,7 +179,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +212,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -242,12 +230,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
@@ -412,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,137 +949,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1135,60 +1123,55 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1514,7 +1497,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1533,10 +1516,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.708333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B1" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1578,14 +1561,14 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="23"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
         <v>0.708333333333333</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="C3" s="3">
         <v>1112572011</v>
@@ -1606,10 +1589,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>0.791666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1709,11 +1692,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1727,9 +1710,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1749,13 +1732,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1781,13 +1764,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="30">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="31">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="32"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1894,67 +1877,38 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" ht="17.5" spans="1:12">
-      <c r="A19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
+    <row r="19" spans="1:12">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" ht="17.5" spans="1:8">
-      <c r="A21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" ht="17.5" spans="1:8">
-      <c r="A22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" ht="17.5" spans="1:8">
-      <c r="A23" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="A20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23"/>
+      <c r="G23"/>
+      <c r="H23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1568,7 +1568,7 @@
         <v>0.708333333333333</v>
       </c>
       <c r="B3" s="2">
-        <v>0.958333333333333</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>1112572011</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>schedule for the team for the upcoming week (24/11/2025 to 28/11/2025)</t>
+    <t>schedule for the team for the upcoming week (1/12/2025 to 5/12/2025)</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Aliaa Abouelazem</t>
+  </si>
+  <si>
+    <t>Please Note that Aliaa Abouelazem will be going to Smart Village on Monday then will be switching back to new cairo for the rest of the week.</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +230,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -949,137 +958,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1138,40 +1147,55 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1497,7 +1521,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1516,10 +1540,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1561,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1692,11 +1716,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="29"/>
+      <c r="K10" s="30" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1710,9 +1734,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1732,13 +1756,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="36" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1764,13 +1788,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="37">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="38">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1786,7 +1810,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="E14" s="17">
-        <v>0.833333333333333</v>
+        <v>0.791666666666667</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:10">
@@ -1803,7 +1827,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="E15" s="17">
-        <v>0.833333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -1825,7 +1849,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="E16" s="17">
-        <v>0.833333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1847,7 +1871,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="E17" s="17">
-        <v>0.833333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -1856,19 +1880,19 @@
       <c r="J17"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="21">
         <v>10272462</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="22">
         <v>0.416666666666667</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="22">
         <v>0.75</v>
       </c>
       <c r="F18"/>
@@ -1885,24 +1909,32 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20"/>
-      <c r="G20"/>
-      <c r="H20"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21"/>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" ht="17.5" spans="1:8">
       <c r="A22"/>
-      <c r="G22"/>
+      <c r="G22" s="26"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Aliaa Abouelazem</t>
-  </si>
-  <si>
-    <t>Please Note that Aliaa Abouelazem will be going to Smart Village on Monday then will be switching back to new cairo for the rest of the week.</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1147,20 +1144,15 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1540,10 +1532,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B1" s="2">
         <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.375</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1585,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="27"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1613,7 +1605,7 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.666666666666667</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1716,11 +1708,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30" t="s">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1734,9 +1726,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1756,13 +1748,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1788,13 +1780,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="35">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="36"/>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1909,24 +1901,12 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-    </row>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+    </row>
+    <row r="20" customFormat="1" ht="14.5"/>
     <row r="21" spans="1:8">
       <c r="A21"/>
       <c r="G21"/>
@@ -1934,7 +1914,7 @@
     </row>
     <row r="22" ht="17.5" spans="1:8">
       <c r="A22"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="23"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8">

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>schedule for the team for the upcoming week (1/12/2025 to 5/12/2025)</t>
+    <t>schedule for the team for the upcoming week (8/12/2025 to 12/12/2025).</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -165,6 +165,24 @@
   </si>
   <si>
     <t>Aliaa Abouelazem</t>
+  </si>
+  <si>
+    <t>Arabella square</t>
+  </si>
+  <si>
+    <t>Cheima Mahamat</t>
+  </si>
+  <si>
+    <t>رابعة العدوية</t>
+  </si>
+  <si>
+    <t>Khloud ElBadry</t>
+  </si>
+  <si>
+    <t>المطبعة</t>
+  </si>
+  <si>
+    <t>Habiba Khaled</t>
   </si>
 </sst>
 </file>
@@ -179,7 +197,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,12 +245,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -955,137 +967,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1144,50 +1156,40 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1513,7 +1515,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A1" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1532,10 +1534,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1577,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="24"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1605,10 +1607,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.708333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1708,11 +1710,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1726,9 +1728,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1748,13 +1750,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1780,13 +1782,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="30">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="31">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="33"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1872,19 +1874,19 @@
       <c r="J17"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="16">
         <v>10272462</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="17">
         <v>0.416666666666667</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="17">
         <v>0.75</v>
       </c>
       <c r="F18"/>
@@ -1893,33 +1895,71 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+    <row r="19" ht="15.25" spans="1:12">
+      <c r="A19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="16">
+        <v>10274128</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.791666666666667</v>
+      </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" customFormat="1" ht="14.5"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" customFormat="1" ht="15.25" spans="1:5">
+      <c r="A20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="16">
+        <v>10326286</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
     <row r="21" spans="1:8">
-      <c r="A21"/>
-      <c r="G21"/>
+      <c r="A21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="16">
+        <v>10269213</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.791666666666667</v>
+      </c>
       <c r="H21"/>
     </row>
-    <row r="22" ht="17.5" spans="1:8">
+    <row r="22" spans="1:8">
       <c r="A22"/>
-      <c r="G22" s="23"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23"/>
-      <c r="G23"/>
       <c r="H23"/>
     </row>
   </sheetData>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>schedule for the team for the upcoming week (8/12/2025 to 12/12/2025).</t>
+    <t>schedule  for the upcoming week (15/12/2025 to 19/12/2025)</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -197,7 +197,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,39 +235,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -445,19 +439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,137 +961,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1138,58 +1132,55 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1512,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1534,10 +1525,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B1" s="2">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1579,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:9">
       <c r="A3" s="2">
@@ -1607,10 +1598,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>0.791666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1710,11 +1701,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1728,9 +1719,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1742,85 +1733,85 @@
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A13" s="15" t="s">
+    <row r="13" s="1" customFormat="1" ht="14.5" spans="1:11">
+      <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>10329457</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>0.791666666666667</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>10272767</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="29">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="30">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="15" t="s">
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.5" spans="1:5">
+      <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>10275931</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A15" s="15" t="s">
+    <row r="15" s="1" customFormat="1" ht="14.5" spans="1:10">
+      <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>10297499</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>0.791666666666667</v>
       </c>
       <c r="F15"/>
@@ -1829,20 +1820,20 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A16" s="15" t="s">
+    <row r="16" s="1" customFormat="1" ht="14.5" spans="1:10">
+      <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>10309482</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>0.791666666666667</v>
       </c>
       <c r="F16"/>
@@ -1851,20 +1842,20 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A17" s="15" t="s">
+    <row r="17" s="1" customFormat="1" ht="14.5" spans="1:10">
+      <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>10278058</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="16">
         <v>0.791666666666667</v>
       </c>
       <c r="F17"/>
@@ -1874,19 +1865,19 @@
       <c r="J17"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>10272462</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>0.416666666666667</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>0.75</v>
       </c>
       <c r="F18"/>
@@ -1896,60 +1887,60 @@
       <c r="J18"/>
     </row>
     <row r="19" ht="15.25" spans="1:12">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>10274128</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>0.791666666666667</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>10326286</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>10269213</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>0.458333333333333</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>0.791666666666667</v>
       </c>
       <c r="H21"/>
@@ -1962,6 +1953,7 @@
       <c r="A23"/>
       <c r="H23"/>
     </row>
+    <row r="24" ht="16.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A11:E11"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1503,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A4" sqref="A4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1525,10 +1525,10 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.375</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="B1" s="2">
-        <v>0.75</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="14.5" spans="1:11">
+    <row r="13" s="1" customFormat="1" ht="15.25" spans="1:11">
       <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="14.5" spans="1:5">
+    <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="14.5" spans="1:10">
+    <row r="15" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="14.5" spans="1:10">
+    <row r="16" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="14.5" spans="1:10">
+    <row r="17" s="1" customFormat="1" ht="15.25" spans="1:10">
       <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
@@ -1953,7 +1953,6 @@
       <c r="A23"/>
       <c r="H23"/>
     </row>
-    <row r="24" ht="16.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A11:E11"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G5"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B6" s="2">
         <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.375</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="1:9">
       <c r="A4" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -104,7 +104,7 @@
     <t>off days</t>
   </si>
   <si>
-    <t>schedule  for the upcoming week (15/12/2025 to 19/12/2025)</t>
+    <t>schedule for the team for the upcoming week (22/12/2025 to 26/12/2025)</t>
   </si>
   <si>
     <t>Pickup point</t>
@@ -197,7 +197,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +235,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,7 +249,7 @@
     </font>
     <font>
       <i/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -439,6 +445,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0B5394"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,12 +458,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B5394"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,137 +967,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1127,60 +1133,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1506,7 +1515,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1523,12 +1532,12 @@
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="B1" s="2">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1547,7 +1556,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="16" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>0.375</v>
       </c>
@@ -1570,9 +1579,9 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" ht="16" customHeight="1" spans="1:9">
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>0.708333333333333</v>
       </c>
@@ -1596,12 +1605,12 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1620,7 +1629,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" ht="16" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>0.375</v>
       </c>
@@ -1701,11 +1710,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1719,9 +1728,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1733,85 +1742,85 @@
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.25" spans="1:11">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>10329457</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="17">
         <v>0.791666666666667</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="18">
         <v>10272767</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="30">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="31">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>10275931</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="17">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="16">
         <v>10297499</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="17">
         <v>0.791666666666667</v>
       </c>
       <c r="F15"/>
@@ -1821,19 +1830,19 @@
       <c r="J15"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="16">
         <v>10309482</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="17">
         <v>0.791666666666667</v>
       </c>
       <c r="F16"/>
@@ -1843,19 +1852,19 @@
       <c r="J16"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>10278058</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="17">
         <v>0.791666666666667</v>
       </c>
       <c r="F17"/>
@@ -1865,19 +1874,19 @@
       <c r="J17"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.25" spans="1:10">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>10272462</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="17">
         <v>0.416666666666667</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="17">
         <v>0.75</v>
       </c>
       <c r="F18"/>
@@ -1887,60 +1896,60 @@
       <c r="J18"/>
     </row>
     <row r="19" ht="15.25" spans="1:12">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="16">
         <v>10274128</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="17">
         <v>0.791666666666667</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" customFormat="1" ht="15.25" spans="1:5">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <v>10326286</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="17">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="16">
         <v>10269213</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="17">
         <v>0.458333333333333</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="17">
         <v>0.791666666666667</v>
       </c>
       <c r="H21"/>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A4" sqref="A4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1537,7 +1537,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="B1" s="2">
-        <v>0.75</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B6" s="2">
         <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.375</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>

--- a/Accounts-Schedules/Facility.xlsx
+++ b/Accounts-Schedules/Facility.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>109 231 6631</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Habiba Khaled</t>
+  </si>
+  <si>
+    <t>Please note that the team will be going to smart village on monday and then the rest of the week will be in new cairo</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +248,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -967,137 +976,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1156,40 +1165,62 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1512,10 +1543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G6"/>
+      <selection activeCell="F22" sqref="F22:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1534,10 +1565,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>0.791666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1579,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
@@ -1607,10 +1638,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B4" s="2">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="3">
         <v>1126665095</v>
@@ -1657,10 +1688,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
@@ -1710,11 +1741,11 @@
       <c r="H10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="31" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1728,9 +1759,9 @@
       <c r="E11" s="11"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16" spans="1:11">
       <c r="A12" s="12" t="s">
@@ -1750,13 +1781,13 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1782,13 +1813,13 @@
       <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="38">
         <v>0.416666666666667</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="39">
         <v>0.791666666666667</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.25" spans="1:5">
       <c r="A14" s="15" t="s">
@@ -1914,10 +1945,10 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" customFormat="1" ht="15.25" spans="1:5">
       <c r="A20" s="15" t="s">
@@ -1936,7 +1967,7 @@
         <v>0.791666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" ht="16.25" spans="1:8">
       <c r="A21" s="15" t="s">
         <v>50</v>
       </c>
@@ -1954,13 +1985,169 @@
       </c>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" ht="16.25" spans="1:8">
+      <c r="A23" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="26">
+        <v>10329457</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0.791666666666667</v>
+      </c>
       <c r="H23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="26">
+        <v>10275931</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="26">
+        <v>10297499</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="26">
+        <v>10309482</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="26">
+        <v>10278058</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="26">
+        <v>10274128</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="26">
+        <v>10326286</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="26">
+        <v>10269213</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0.791666666666667</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
